--- a/FileHandling/ExcelFiles/data.xlsx
+++ b/FileHandling/ExcelFiles/data.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -539,6 +539,36 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
